--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4064F31-540E-4C4D-A001-24D511718565}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC675184-0A1E-4D0C-892B-761E0E5D16DB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{03FCA750-3069-4E98-8889-EDFFACBD7BA7}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Custodio">Hoja1!$H$2:$H$6</definedName>
-    <definedName name="_Estado">Hoja1!$I$2:$I$7</definedName>
+    <definedName name="_Custodio">Hoja1!$A$28:$A$32</definedName>
+    <definedName name="_Estado">Hoja1!$B$28:$B$33</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -268,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -284,26 +284,25 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -381,286 +380,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -974,25 +693,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9EF44E-C7EE-447A-A024-D7352D22FCC0}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="9"/>
-    <col min="8" max="8" width="36.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1012,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1023,16 +742,14 @@
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E2" s="11">
+        <v>43223</v>
+      </c>
+      <c r="F2" s="11">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1043,16 +760,14 @@
         <v>10</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="11">
+        <v>43223</v>
+      </c>
+      <c r="F3" s="11">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -1061,16 +776,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -1079,16 +788,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -1097,16 +800,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -1115,13 +812,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
@@ -1130,10 +824,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>7</v>
@@ -1142,10 +836,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>8</v>
@@ -1154,10 +848,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>8</v>
@@ -1166,10 +860,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1177,7 +871,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -1186,71 +880,117 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="22"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>1</v>
       </c>
       <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>2</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <v>3</v>
       </c>
       <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>4</v>
       </c>
       <c r="B22" s="4"/>
     </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A17:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C2)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRANSFERIDO">
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="SEGUIMIENTO">
-      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C2)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="PROCESO">
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="PAUSADO">
       <formula>NOT(ISERROR(SEARCH("PAUSADO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="SEGUIMIENTO">
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH("PROCESO",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRANSFERIDO">
-      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="FINALIZADO">
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC675184-0A1E-4D0C-892B-761E0E5D16DB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2397F0AB-E7B1-444E-AE3D-90C06BB1D3F8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{03FCA750-3069-4E98-8889-EDFFACBD7BA7}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Custodio">Hoja1!$A$28:$A$32</definedName>
-    <definedName name="_Estado">Hoja1!$B$28:$B$33</definedName>
+    <definedName name="_Custodio">Hoja1!$A$34:$A$38</definedName>
+    <definedName name="_Estado">Hoja1!$B$34:$B$39</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Responsables</t>
   </si>
   <si>
-    <t>Comentario General</t>
-  </si>
-  <si>
     <t>Fecha Fin</t>
   </si>
   <si>
@@ -104,13 +101,56 @@
   </si>
   <si>
     <t>Tarea</t>
+  </si>
+  <si>
+    <t>El producto - CAPITULO 1</t>
+  </si>
+  <si>
+    <t>Nombre del producto - CAPITULO 1</t>
+  </si>
+  <si>
+    <t>Antecedentes y problemática - CAPITULO 1</t>
+  </si>
+  <si>
+    <t>Objetivo - CAPITULO 1</t>
+  </si>
+  <si>
+    <t>Alcance - CAPITULO 1</t>
+  </si>
+  <si>
+    <t>Caracteristicas - CAPITULO 1</t>
+  </si>
+  <si>
+    <t>Ruta</t>
+  </si>
+  <si>
+    <t>https://github.com/angelsantacruzm/aplicacionesMOB_cc75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \gasAPP\aplicacionesMOB_cc75\appGAS - Gestion\PGC_PlanDeGestionDeConfiguracion\PP_PlanDeProyecto</t>
+  </si>
+  <si>
+    <t>\gasAPP\aplicacionesMOB_cc75\appGAS - Gestion\PGC_PlanDeGestionDeConfiguracion\PP_PlanDeProyecto</t>
+  </si>
+  <si>
+    <t>\gasAPP\aplicacionesMOB_cc75\appGAS - Analisis\CDN_ContextoDelNegocio</t>
+  </si>
+  <si>
+    <t>\gasAPP\aplicacionesMOB_cc75\appGAS - Analisis\ALC_Alcance</t>
+  </si>
+  <si>
+    <t>Comentario general</t>
+  </si>
+  <si>
+    <t>REVISAR WBS PROYECTO Y APLICACIÓN
+REVISAR COMENTARIOS EN EL DOCUMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +170,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,10 +313,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -298,11 +347,176 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -693,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9EF44E-C7EE-447A-A024-D7352D22FCC0}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,16 +918,17 @@
     <col min="1" max="1" width="63.5703125" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="123.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="113.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -722,285 +937,461 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="11">
-        <v>43223</v>
-      </c>
+      <c r="D2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="23"/>
       <c r="F2" s="11">
         <v>43223</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="11">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="11">
-        <v>43223</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="11">
         <v>43223</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="G3" s="11">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="11">
+        <v>43224</v>
+      </c>
+      <c r="G4" s="11">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="11">
+        <v>43224</v>
+      </c>
+      <c r="G5" s="11">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="11">
+        <v>43224</v>
+      </c>
+      <c r="G6" s="11">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="11">
+        <v>43224</v>
+      </c>
+      <c r="G7" s="11">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="11">
+        <v>43224</v>
+      </c>
+      <c r="G8" s="11">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11">
+        <v>43224</v>
+      </c>
+      <c r="G9" s="11">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>3</v>
+      </c>
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11">
-        <v>43223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="22"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>1</v>
-      </c>
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>3</v>
-      </c>
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRANSFERIDO">
+  <conditionalFormatting sqref="C10:C17 C2:C8">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="TRANSFERIDO">
       <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="PROCESO">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="PROCESO">
       <formula>NOT(ISERROR(SEARCH("PROCESO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="PAUSADO">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="PAUSADO">
       <formula>NOT(ISERROR(SEARCH("PAUSADO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="SEGUIMIENTO">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="SEGUIMIENTO">
       <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="FINALIZADO">
+    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="FINALIZADO">
       <formula>NOT(ISERROR(SEARCH("FINALIZADO",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="TRANSFERIDO">
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="PROCESO">
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="PAUSADO">
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="SEGUIMIENTO">
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="FINALIZADO">
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{7F479649-180B-44B5-940B-62A43F3A2E18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B17 B2:B8" xr:uid="{7F479649-180B-44B5-940B-62A43F3A2E18}">
       <formula1>_Custodio</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{2F4C52C3-C722-4F93-B140-536C40737886}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17" xr:uid="{2F4C52C3-C722-4F93-B140-536C40737886}">
       <formula1>_Estado</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{545BCE04-BF11-4E1C-8CB5-5B68FD821CFE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2397F0AB-E7B1-444E-AE3D-90C06BB1D3F8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF50C23B-5BEA-46CC-933E-E69351466FB1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{03FCA750-3069-4E98-8889-EDFFACBD7BA7}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Custodio">Hoja1!$A$34:$A$38</definedName>
-    <definedName name="_Estado">Hoja1!$B$34:$B$39</definedName>
+    <definedName name="_Custodio">Hoja1!$A$37:$A$41</definedName>
+    <definedName name="_Estado">Hoja1!$B$37:$B$42</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -144,6 +144,25 @@
   <si>
     <t>REVISAR WBS PROYECTO Y APLICACIÓN
 REVISAR COMENTARIOS EN EL DOCUMENTO</t>
+  </si>
+  <si>
+    <t>RESUELTO</t>
+  </si>
+  <si>
+    <t>C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Analisis\UML_CasosdeUso
+C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Analisis\ECU_EspecificacionCasosDeUso
+C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - PlanDeDesarrollo\PS_PlanificacionScrum</t>
+  </si>
+  <si>
+    <t>Casos de uso - CAPITULO 3
++SCRUM</t>
+  </si>
+  <si>
+    <t>Resumen de tecnologías aplicadas en el diseño y desarrollo de la solución
+IGUAL A VISTA DESPLIEGUE</t>
+  </si>
+  <si>
+    <t>C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Diseno\VD_VistaDespliegue</t>
   </si>
 </sst>
 </file>
@@ -317,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -341,102 +360,25 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -907,15 +849,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9EF44E-C7EE-447A-A024-D7352D22FCC0}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="123.5703125" bestFit="1" customWidth="1"/>
@@ -959,10 +901,10 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="11">
         <v>43223</v>
       </c>
@@ -989,7 +931,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1002,8 +944,8 @@
       <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>37</v>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="11">
         <v>43224</v>
@@ -1012,7 +954,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1025,8 +967,8 @@
       <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>37</v>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="11">
         <v>43224</v>
@@ -1098,9 +1040,9 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -1108,12 +1050,10 @@
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="D9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="11">
         <v>43224</v>
       </c>
@@ -1121,271 +1061,320 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="11">
+        <v>43224</v>
+      </c>
+      <c r="G12" s="11">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
-        <v>6</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
-        <v>6</v>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
-        <v>7</v>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B23" s="11">
         <v>43223</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <v>3</v>
-      </c>
-      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>3</v>
+      </c>
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
         <v>4</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
+      <c r="B31" s="4"/>
     </row>
     <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>7</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
-  <conditionalFormatting sqref="C10:C17 C2:C8">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="TRANSFERIDO">
+  <conditionalFormatting sqref="C13:C20 C2:C11">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="TRANSFERIDO">
       <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="PROCESO">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="PROCESO">
       <formula>NOT(ISERROR(SEARCH("PROCESO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="PAUSADO">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="PAUSADO">
       <formula>NOT(ISERROR(SEARCH("PAUSADO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="10" priority="22" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="SEGUIMIENTO">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="SEGUIMIENTO">
       <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="FINALIZADO">
+    <cfRule type="containsText" dxfId="8" priority="24" operator="containsText" text="FINALIZADO">
       <formula>NOT(ISERROR(SEARCH("FINALIZADO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="TRANSFERIDO">
-      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH("PROCESO",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="PAUSADO">
-      <formula>NOT(ISERROR(SEARCH("PAUSADO",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="SEGUIMIENTO">
-      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C9)))</formula>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRANSFERIDO">
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="PROCESO">
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="PAUSADO">
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="SEGUIMIENTO">
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="FINALIZADO">
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B17 B2:B8" xr:uid="{7F479649-180B-44B5-940B-62A43F3A2E18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B20 B2:B11" xr:uid="{7F479649-180B-44B5-940B-62A43F3A2E18}">
       <formula1>_Custodio</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17" xr:uid="{2F4C52C3-C722-4F93-B140-536C40737886}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{2F4C52C3-C722-4F93-B140-536C40737886}">
       <formula1>_Estado</formula1>
     </dataValidation>
   </dataValidations>

--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF50C23B-5BEA-46CC-933E-E69351466FB1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2B635B-EB72-4E44-B8B4-7866FA7B32BB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{03FCA750-3069-4E98-8889-EDFFACBD7BA7}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Custodio">Hoja1!$A$37:$A$41</definedName>
-    <definedName name="_Estado">Hoja1!$B$37:$B$42</definedName>
+    <definedName name="_Custodio">Hoja1!$A$38:$A$42</definedName>
+    <definedName name="_Estado">Hoja1!$B$38:$B$43</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Diseno\VD_VistaDespliegue</t>
+  </si>
+  <si>
+    <t>Documento de Stakeholders</t>
+  </si>
+  <si>
+    <t>C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Analisis\STH_StakeHolders</t>
+  </si>
+  <si>
+    <t>Documento Esquema de Repositorios</t>
+  </si>
+  <si>
+    <t>C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Gestion\PGC_PlanDeGestionDeConfiguracion\EI_EsquemaDeRepositorio</t>
   </si>
 </sst>
 </file>
@@ -849,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9EF44E-C7EE-447A-A024-D7352D22FCC0}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +872,7 @@
     <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="123.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="139.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -1075,21 +1087,37 @@
         <v>42</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="11">
+        <v>43224</v>
+      </c>
+      <c r="G10" s="11">
+        <v>43224</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F11" s="11">
+        <v>43224</v>
+      </c>
+      <c r="G11" s="11">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
@@ -1098,30 +1126,34 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="11">
-        <v>43224</v>
-      </c>
-      <c r="G12" s="11">
-        <v>43224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="11">
+        <v>43224</v>
+      </c>
+      <c r="G13" s="11">
+        <v>43224</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -1137,17 +1169,17 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -1163,17 +1195,17 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
-        <v>6</v>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -1189,17 +1221,17 @@
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
-        <v>7</v>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1214,111 +1246,124 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="11">
-        <v>43223</v>
-      </c>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="11">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="B27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
-        <v>1</v>
-      </c>
-      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
-        <v>3</v>
-      </c>
-      <c r="B30" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
+        <v>3</v>
+      </c>
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
         <v>4</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
+      <c r="B32" s="4"/>
     </row>
     <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
-  <conditionalFormatting sqref="C13:C20 C2:C11">
+  <conditionalFormatting sqref="C14:C21 C2:C12">
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="TRANSFERIDO">
       <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C2)))</formula>
     </cfRule>
@@ -1344,37 +1389,37 @@
       <formula>NOT(ISERROR(SEARCH("FINALIZADO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRANSFERIDO">
-      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH("PROCESO",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="PAUSADO">
-      <formula>NOT(ISERROR(SEARCH("PAUSADO",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="SEGUIMIENTO">
-      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B20 B2:B11" xr:uid="{7F479649-180B-44B5-940B-62A43F3A2E18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B21 B2:B12" xr:uid="{7F479649-180B-44B5-940B-62A43F3A2E18}">
       <formula1>_Custodio</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{2F4C52C3-C722-4F93-B140-536C40737886}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{2F4C52C3-C722-4F93-B140-536C40737886}">
       <formula1>_Estado</formula1>
     </dataValidation>
   </dataValidations>

--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201212555\Documents\GitHub\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2B635B-EB72-4E44-B8B4-7866FA7B32BB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{03FCA750-3069-4E98-8889-EDFFACBD7BA7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_Custodio">Hoja1!$A$38:$A$42</definedName>
     <definedName name="_Estado">Hoja1!$B$38:$B$43</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -175,12 +174,27 @@
   </si>
   <si>
     <t>C:\Users\angel\Desktop\gasAPP\aplicacionesMOB_cc75\appGAS - Gestion\PGC_PlanDeGestionDeConfiguracion\EI_EsquemaDeRepositorio</t>
+  </si>
+  <si>
+    <t>C:\Users\u201212555\Documents\GitHub\aplicacionesMOB_cc75\appGAS - Analisis\ER_EspecificacionesRequerimientos</t>
+  </si>
+  <si>
+    <t>Requerimientos no Funcionales</t>
+  </si>
+  <si>
+    <t>Requerimientos Funcionales</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>C:\Users\u201212555\Documents\GitHub\aplicacionesMOB_cc75\appGAS - Gestion\ENT_Entregables\Entreganle2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,7 +404,87 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -860,11 +954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9EF44E-C7EE-447A-A024-D7352D22FCC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,30 +1328,55 @@
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -1364,68 +1483,95 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="C14:C21 C2:C12">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="TRANSFERIDO">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="TRANSFERIDO">
       <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="PROCESO">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="PROCESO">
       <formula>NOT(ISERROR(SEARCH("PROCESO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="PAUSADO">
+    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="PAUSADO">
       <formula>NOT(ISERROR(SEARCH("PAUSADO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="22" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="SEGUIMIENTO">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="SEGUIMIENTO">
       <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="24" operator="containsText" text="FINALIZADO">
+    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="FINALIZADO">
       <formula>NOT(ISERROR(SEARCH("FINALIZADO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="TRANSFERIDO">
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="PROCESO">
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="PAUSADO">
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="SEGUIMIENTO">
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="FINALIZADO">
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRANSFERIDO">
-      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH("PROCESO",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="PAUSADO">
-      <formula>NOT(ISERROR(SEARCH("PAUSADO",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="SEGUIMIENTO">
-      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B21 B2:B12" xr:uid="{7F479649-180B-44B5-940B-62A43F3A2E18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B22 B2:B12">
       <formula1>_Custodio</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{2F4C52C3-C722-4F93-B140-536C40737886}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22">
       <formula1>_Estado</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{545BCE04-BF11-4E1C-8CB5-5B68FD821CFE}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201212555\Documents\GitHub\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[Arturo]\UPC\IX\Apps Moviles\Git\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_Custodio">Hoja1!$A$38:$A$42</definedName>
     <definedName name="_Estado">Hoja1!$B$38:$B$43</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>C:\Users\u201212555\Documents\GitHub\aplicacionesMOB_cc75\appGAS - Gestion\ENT_Entregables\Entreganle2</t>
+  </si>
+  <si>
+    <t>Diagrama de despliegue</t>
+  </si>
+  <si>
+    <t>aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades</t>
+  </si>
+  <si>
+    <t>Darle una revisada igual</t>
   </si>
 </sst>
 </file>
@@ -958,7 +967,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,15 +1259,21 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>

--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Darle una revisada igual</t>
+  </si>
+  <si>
+    <t>SupplyChainManagement- Ciclo de vida del proyecto</t>
+  </si>
+  <si>
+    <t>aplicacionesMOB_cc75\appGAS - Gestion\PGC_PlanDeGestionDeConfiguracion\SCM_SupplyChainManagement</t>
   </si>
 </sst>
 </file>
@@ -967,7 +973,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,15 +1284,21 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>

--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[Arturo]\UPC\IX\Apps Moviles\Git\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>aplicacionesMOB_cc75\appGAS - Gestion\PGC_PlanDeGestionDeConfiguracion\SCM_SupplyChainManagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de Base de datos </t>
+  </si>
+  <si>
+    <t>Implementaciòn de Base de Datos en Firebase</t>
+  </si>
+  <si>
+    <t>https://console.firebase.google.com/project/gasupc-1525361388402/database/gasupc-1525361388402/data</t>
   </si>
 </sst>
 </file>
@@ -973,23 +982,23 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="113.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="139.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="113.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1012,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1033,7 +1042,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>40</v>
       </c>
@@ -1182,7 +1191,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>41</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
@@ -1224,7 +1233,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -1241,7 +1250,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -1283,7 +1292,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -1302,7 +1311,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>5</v>
@@ -1315,7 +1324,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>5</v>
@@ -1328,33 +1337,41 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>50</v>
       </c>
@@ -1371,7 +1388,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>49</v>
       </c>
@@ -1388,7 +1405,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>48</v>
       </c>
@@ -1405,7 +1422,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +1430,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -1421,13 +1438,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="25"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>21</v>
       </c>
@@ -1435,31 +1452,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>1</v>
       </c>
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>2</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>3</v>
       </c>
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>4</v>
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1467,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1475,7 +1492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1483,7 +1500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1491,7 +1508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1499,12 +1516,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A27:B27"/>

--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Custodio">Hoja1!$A$38:$A$42</definedName>
-    <definedName name="_Estado">Hoja1!$B$38:$B$43</definedName>
+    <definedName name="_Custodio">Hoja1!$A$39:$A$43</definedName>
+    <definedName name="_Estado">Hoja1!$B$39:$B$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>https://console.firebase.google.com/project/gasupc-1525361388402/database/gasupc-1525361388402/data</t>
+  </si>
+  <si>
+    <t>Contribuciòn en el desarrollo de Aplicación</t>
+  </si>
+  <si>
+    <t>https://github.com/franyow/GasProject.git</t>
   </si>
 </sst>
 </file>
@@ -979,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,25 +1378,25 @@
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>7</v>
+      <c r="A20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="D20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>7</v>
@@ -1399,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="20"/>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>7</v>
@@ -1422,111 +1428,128 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="11">
-        <v>43223</v>
-      </c>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="11">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="B28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <v>1</v>
-      </c>
-      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
-        <v>3</v>
-      </c>
-      <c r="B31" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
+        <v>3</v>
+      </c>
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
         <v>4</v>
       </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
+      <c r="B33" s="4"/>
     </row>
     <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
-  <conditionalFormatting sqref="C14:C21 C2:C12">
+  <conditionalFormatting sqref="C14:C22 C2:C12">
     <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="TRANSFERIDO">
       <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C2)))</formula>
     </cfRule>
@@ -1578,37 +1601,37 @@
       <formula>NOT(ISERROR(SEARCH("FINALIZADO",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C23">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRANSFERIDO">
-      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH("PROCESO",C22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="PAUSADO">
-      <formula>NOT(ISERROR(SEARCH("PAUSADO",C22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="SEGUIMIENTO">
-      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B22 B2:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 B14:B23">
       <formula1>_Custodio</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23">
       <formula1>_Estado</formula1>
     </dataValidation>
   </dataValidations>

--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Custodio">Hoja1!$A$39:$A$43</definedName>
-    <definedName name="_Estado">Hoja1!$B$39:$B$44</definedName>
+    <definedName name="_Custodio">Hoja1!$A$40:$A$44</definedName>
+    <definedName name="_Estado">Hoja1!$B$40:$B$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>https://github.com/franyow/GasProject.git</t>
+  </si>
+  <si>
+    <t>Investigación de herramientas para el desarrollo de la aplicación móvil y API</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,87 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -985,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,7 +1428,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>6</v>
@@ -1353,16 +1436,14 @@
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>6</v>
@@ -1379,7 +1460,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>6</v>
@@ -1388,32 +1469,32 @@
         <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
+      <c r="A21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="D21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>7</v>
@@ -1422,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="20"/>
@@ -1430,7 +1511,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>7</v>
@@ -1445,193 +1526,236 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="11">
-        <v>43223</v>
-      </c>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="11">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="B29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>1</v>
-      </c>
-      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
-        <v>2</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
-        <v>3</v>
-      </c>
-      <c r="B32" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
+        <v>3</v>
+      </c>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
         <v>4</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
+      <c r="B34" s="4"/>
     </row>
     <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
-  <conditionalFormatting sqref="C14:C22 C2:C12">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="TRANSFERIDO">
+  <conditionalFormatting sqref="C14:C18 C2:C12 C20:C23">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="TRANSFERIDO">
       <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="PROCESO">
+    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="PROCESO">
       <formula>NOT(ISERROR(SEARCH("PROCESO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="28" priority="36" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="PAUSADO">
+    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="PAUSADO">
       <formula>NOT(ISERROR(SEARCH("PAUSADO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="POR HACER">
+    <cfRule type="containsText" dxfId="26" priority="38" operator="containsText" text="POR HACER">
       <formula>NOT(ISERROR(SEARCH("POR HACER",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="SEGUIMIENTO">
+    <cfRule type="containsText" dxfId="25" priority="39" operator="containsText" text="SEGUIMIENTO">
       <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="FINALIZADO">
+    <cfRule type="containsText" dxfId="24" priority="40" operator="containsText" text="FINALIZADO">
       <formula>NOT(ISERROR(SEARCH("FINALIZADO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="TRANSFERIDO">
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="PROCESO">
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="PAUSADO">
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="POR HACER">
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="SEGUIMIENTO">
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="FINALIZADO">
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
     <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="TRANSFERIDO">
-      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH("PROCESO",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="PAUSADO">
-      <formula>NOT(ISERROR(SEARCH("PAUSADO",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="SEGUIMIENTO">
-      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C19">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRANSFERIDO">
-      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH("PROCESO",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="PAUSADO">
-      <formula>NOT(ISERROR(SEARCH("PAUSADO",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="SEGUIMIENTO">
-      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 B14:B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 B14:B24">
       <formula1>_Custodio</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C24">
       <formula1>_Estado</formula1>
     </dataValidation>
   </dataValidations>

--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Custodio">Hoja1!$A$40:$A$44</definedName>
-    <definedName name="_Estado">Hoja1!$B$40:$B$45</definedName>
+    <definedName name="_Custodio">Hoja1!$A$41:$A$45</definedName>
+    <definedName name="_Estado">Hoja1!$B$41:$B$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>Investigación de herramientas para el desarrollo de la aplicación móvil y API</t>
+  </si>
+  <si>
+    <t>Test del API Rest Firebase</t>
+  </si>
+  <si>
+    <t>Postman</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
@@ -1493,25 +1499,25 @@
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>7</v>
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="D22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>7</v>
@@ -1520,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="20"/>
@@ -1528,7 +1534,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>7</v>
@@ -1543,111 +1549,128 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="11">
-        <v>43223</v>
-      </c>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="11">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="B30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>1</v>
-      </c>
-      <c r="B31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
-        <v>2</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
-        <v>3</v>
-      </c>
-      <c r="B33" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
+        <v>3</v>
+      </c>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
         <v>4</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
+      <c r="B35" s="4"/>
     </row>
     <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
-  <conditionalFormatting sqref="C14:C18 C2:C12 C20:C23">
+  <conditionalFormatting sqref="C14:C18 C2:C12 C20:C24">
     <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="TRANSFERIDO">
       <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C2)))</formula>
     </cfRule>
@@ -1699,30 +1722,30 @@
       <formula>NOT(ISERROR(SEARCH("FINALIZADO",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="TRANSFERIDO">
-      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH("PROCESO",C24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="PAUSADO">
-      <formula>NOT(ISERROR(SEARCH("PAUSADO",C24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="SEGUIMIENTO">
-      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
@@ -1752,10 +1775,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 B14:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 B14:B25">
       <formula1>_Custodio</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25">
       <formula1>_Estado</formula1>
     </dataValidation>
   </dataValidations>

--- a/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
+++ b/appGAS - Gestion/CR_CronogramaResponsabilidades/CR_CronogramaResponsabilidades.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\aplicacionesMOB_cc75\appGAS - Gestion\CR_CronogramaResponsabilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Custodio">Hoja1!$A$41:$A$45</definedName>
-    <definedName name="_Estado">Hoja1!$B$41:$B$46</definedName>
+    <definedName name="_Custodio">Hoja1!$A$43:$A$47</definedName>
+    <definedName name="_Estado">Hoja1!$B$43:$B$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -228,6 +228,27 @@
   </si>
   <si>
     <t>Postman</t>
+  </si>
+  <si>
+    <t>Wireframes/mockups</t>
+  </si>
+  <si>
+    <t>Desarrollo aplicación</t>
+  </si>
+  <si>
+    <t>Diagrama base de datos(contribución)</t>
+  </si>
+  <si>
+    <t>Creación de repositorio GitHub para proyecto Android(apk)</t>
+  </si>
+  <si>
+    <t>https://github.com/angelsantacruzm/aplicacionesMOB_cc75/tree/master/appGAS%20-%20Diseno/PIU_PrototipoInterfazUsuario</t>
+  </si>
+  <si>
+    <t>https://github.com/franyow/GasProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gasupc-1525361388402.firebaseio.com/ </t>
   </si>
 </sst>
 </file>
@@ -401,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -422,7 +443,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -438,6 +458,11 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1074,26 +1099,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F16" sqref="F16:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="139.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="113.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="113.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1126,10 +1151,10 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="11">
         <v>43223</v>
       </c>
@@ -1137,7 +1162,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1156,7 +1181,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1179,7 +1204,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1202,7 +1227,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1248,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1244,7 +1269,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1265,8 +1290,8 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1275,7 +1300,7 @@
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3"/>
@@ -1286,8 +1311,8 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1307,7 +1332,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
@@ -1328,7 +1353,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -1345,7 +1370,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1358,7 +1383,7 @@
       <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="11">
@@ -1368,7 +1393,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -1387,7 +1412,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -1406,67 +1431,93 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>69</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="F16" s="29">
+        <v>43224</v>
+      </c>
+      <c r="G16" s="29">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>70</v>
+      </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="F17" s="29">
+        <v>43194</v>
+      </c>
+      <c r="G17" s="29">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="29">
+        <v>43224</v>
+      </c>
+      <c r="G18" s="29">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="29">
+        <v>43194</v>
+      </c>
+      <c r="G19" s="29">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>6</v>
@@ -1474,16 +1525,14 @@
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
@@ -1492,15 +1541,15 @@
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>6</v>
@@ -1509,49 +1558,49 @@
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>7</v>
@@ -1560,117 +1609,151 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B29" s="11">
         <v>43223</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="B32" s="24"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>1</v>
       </c>
-      <c r="B32" s="13"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
         <v>2</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
         <v>3</v>
       </c>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
         <v>4</v>
       </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
-  <conditionalFormatting sqref="C14:C18 C2:C12 C20:C24">
+  <conditionalFormatting sqref="C14:C20 C2:C12 C22:C26">
     <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="TRANSFERIDO">
       <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C2)))</formula>
     </cfRule>
@@ -1722,63 +1805,63 @@
       <formula>NOT(ISERROR(SEARCH("FINALIZADO",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C27">
     <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="TRANSFERIDO">
-      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH("PROCESO",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="PAUSADO">
-      <formula>NOT(ISERROR(SEARCH("PAUSADO",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="SEGUIMIENTO">
-      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C21">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRANSFERIDO">
-      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRANSFERIDO",C21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH("PROCESO",C19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PROCESO",C21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="PAUSADO">
-      <formula>NOT(ISERROR(SEARCH("PAUSADO",C19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PAUSADO",C21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="POR HACER">
-      <formula>NOT(ISERROR(SEARCH("POR HACER",C19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("POR HACER",C21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="SEGUIMIENTO">
-      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SEGUIMIENTO",C21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 B14:B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 B14:B27">
       <formula1>_Custodio</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C27">
       <formula1>_Estado</formula1>
     </dataValidation>
   </dataValidations>
